--- a/Ejemplo Monitores.xlsx
+++ b/Ejemplo Monitores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\src\ControlInvetario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A251A778-3ABD-44B4-9EDB-6F251330421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F4BC8-EBD5-4B1C-AF78-A0E0ED0D92D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{28FE0505-C958-4000-8AE0-E275EF08841A}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>QUERET</t>
   </si>
   <si>
-    <t>Monitors</t>
-  </si>
-  <si>
     <t>CNC119QGGW</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>CNC203PFW9</t>
+  </si>
+  <si>
+    <t>Monitor</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47328D57-9F1F-4338-9795-90B59A81E709}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:P2347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,16 +616,16 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -642,16 +642,16 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -668,16 +668,16 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -720,16 +720,16 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -746,16 +746,16 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -772,16 +772,16 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -798,16 +798,16 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -824,16 +824,16 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -850,16 +850,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -876,16 +876,16 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -902,16 +902,16 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -928,16 +928,16 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -954,16 +954,16 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -980,16 +980,16 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1006,16 +1006,16 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1032,16 +1032,16 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1058,16 +1058,16 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1110,16 +1110,16 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1136,16 +1136,16 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
